--- a/TCB/CSTC.xlsx
+++ b/TCB/CSTC.xlsx
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="AY7" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="BA7" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="BB7" t="n">
         <v>0</v>
